--- a/va_facility_data_2025-02-20/George H. O'Brien, Jr., Department of Veterans Affairs Medical Center - Facility Data.xlsx"; filename*=UTF-8''George%20H.%20O%27Brien%2C%20Jr.%2C%20Department%20of%20Veterans%20Affairs%20Medical%20Center%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/George H. O'Brien, Jr., Department of Veterans Affairs Medical Center - Facility Data.xlsx"; filename*=UTF-8''George%20H.%20O%27Brien%2C%20Jr.%2C%20Department%20of%20Veterans%20Affairs%20Medical%20Center%20-%20Facility%20Data.xlsx
@@ -2,11 +2,11 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Effective Care" sheetId="1" r:id="R5803fb1217744dcaa2e0b7b6bc20d02c"/>
-    <x:sheet name="Veteran-Centered Care" sheetId="2" r:id="R77f318cf2fb34e418fe66c4eb6c2fca6"/>
-    <x:sheet name="Wait Times" sheetId="3" r:id="Ra7203d8a6ccd47b88a48b7231b04543d"/>
-    <x:sheet name="Satisfaction with Care" sheetId="4" r:id="Re821a6ae70944871897bfac01c6b9c72"/>
-    <x:sheet name="Outpatient Score" sheetId="5" r:id="R4db8494622e64eb587a7e9a2332ecdf1"/>
+    <x:sheet name="Effective Care" sheetId="1" r:id="R59a41e6b5d834c6d9d5017994e5feca9"/>
+    <x:sheet name="Veteran-Centered Care" sheetId="2" r:id="Rb3a254f348524ca3b102019a97d42fd0"/>
+    <x:sheet name="Wait Times" sheetId="3" r:id="Rafcfba5db6064affb929e004bbd7cf8c"/>
+    <x:sheet name="Satisfaction with Care" sheetId="4" r:id="R8f9ffadf519f42aa80e7fb64d29475e7"/>
+    <x:sheet name="Outpatient Score" sheetId="5" r:id="R7da430cd89f549f1874349db5220f461"/>
   </x:sheets>
 </x:workbook>
 </file>
